--- a/data/data_Vmax_Tesla3.xlsx
+++ b/data/data_Vmax_Tesla3.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/f215465b21b5e6e2/Studium/34_Github/PyEVPowerKit/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="396" documentId="8_{F7289491-3A8E-4014-98DC-8F09250306A8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{B3061F2A-8951-45DF-A718-8E3AEAC0A888}"/>
+  <xr:revisionPtr revIDLastSave="400" documentId="8_{F7289491-3A8E-4014-98DC-8F09250306A8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{81CBAC10-5C37-41F3-AD2B-286A6D15DC3F}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16896" activeTab="2" xr2:uid="{DB7D2548-4471-4992-93B1-3EC0BA66F7EA}"/>
+    <workbookView xWindow="660" yWindow="780" windowWidth="23040" windowHeight="12204" activeTab="2" xr2:uid="{DB7D2548-4471-4992-93B1-3EC0BA66F7EA}"/>
   </bookViews>
   <sheets>
     <sheet name="readme" sheetId="2" r:id="rId1"/>
@@ -326,6 +326,36 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Acceleration</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" baseline="0"/>
+              <a:t> Tesla Model 3 (2018)</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -12450,6 +12480,61 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-GB"/>
+                  <a:t>time (sec)</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -12512,7 +12597,62 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
-        <c:numFmt formatCode="0.00E+00" sourceLinked="1"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-GB"/>
+                  <a:t>v (m/s)</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="#,##0.0" sourceLinked="0"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -13165,16 +13305,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>426720</xdr:colOff>
-      <xdr:row>13</xdr:row>
-      <xdr:rowOff>156210</xdr:rowOff>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>22860</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>140970</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>19</xdr:col>
-      <xdr:colOff>121920</xdr:colOff>
-      <xdr:row>28</xdr:row>
-      <xdr:rowOff>156210</xdr:rowOff>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>327660</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>140970</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -13842,8 +13982,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D6AFF6A9-0AB4-489E-B943-720610BD2247}">
   <dimension ref="A1:J2002"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F3" sqref="F3"/>
+    <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
+      <selection activeCell="O28" sqref="O28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
